--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1737551.984866493</v>
+        <v>-1740128.306347734</v>
       </c>
     </row>
     <row r="7">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>114.647395297054</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>156.6414918632575</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>104.9866444794633</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>87.41737397656512</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>54.35958206012885</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,13 +953,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>139.5619007691622</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,7 +1057,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,10 +1114,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>165.5172270997741</v>
+        <v>35.47320863750112</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>398.5146692103809</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>63.73277769123396</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>67.19497231155776</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>182.6529757842261</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,10 +1534,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465679</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>5.890337106879837</v>
+        <v>148.8796904206634</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>18.16423677622466</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,16 +1819,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>46.52295781333649</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,13 +1844,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.65140663107627</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>95.81917536083792</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667501</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>73.95046331124223</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>187.2551470558694</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>87.2147151485299</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,10 +2956,10 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545306</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261737</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545294</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.236214140705</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>1179.430764345701</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D2" t="n">
-        <v>821.1650657389509</v>
+        <v>950.1045973369974</v>
       </c>
       <c r="E2" t="n">
-        <v>821.1650657389509</v>
+        <v>564.3163447387531</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>564.3163447387531</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4328,16 +4328,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4364,16 +4364,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
         <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064756</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080133</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>340.2620686932859</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C4" t="n">
-        <v>340.2620686932859</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D4" t="n">
-        <v>340.2620686932859</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>340.2620686932859</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>340.2620686932859</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>172.5592320680049</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4504,34 +4504,34 @@
         <v>947.9914432975877</v>
       </c>
       <c r="P4" t="n">
-        <v>1055.037596261247</v>
+        <v>1055.037596261241</v>
       </c>
       <c r="Q4" t="n">
-        <v>1132.647892413762</v>
+        <v>1132.647892413756</v>
       </c>
       <c r="R4" t="n">
-        <v>1042.81743517129</v>
+        <v>1044.34751465965</v>
       </c>
       <c r="S4" t="n">
-        <v>851.1315509981163</v>
+        <v>1044.34751465965</v>
       </c>
       <c r="T4" t="n">
-        <v>629.3649355676423</v>
+        <v>822.5808992291755</v>
       </c>
       <c r="U4" t="n">
-        <v>340.2620686932859</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="V4" t="n">
-        <v>340.2620686932859</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="W4" t="n">
-        <v>340.2620686932859</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="X4" t="n">
-        <v>340.2620686932859</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="Y4" t="n">
-        <v>340.2620686932859</v>
+        <v>533.4780323548191</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.864437266279</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1171.901920325867</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.5121164321834</v>
@@ -4568,13 +4568,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="X5" t="n">
-        <v>1931.003769242091</v>
+        <v>2492.631839006149</v>
       </c>
       <c r="Y5" t="n">
-        <v>1540.864437266279</v>
+        <v>2102.492507030337</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>332.773976541745</v>
+        <v>531.7821255545682</v>
       </c>
       <c r="C7" t="n">
-        <v>163.837793613838</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D7" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E7" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4753,22 +4753,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1191.821308835076</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>902.4041387981149</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X7" t="n">
-        <v>735.2150205155148</v>
+        <v>934.2231695283381</v>
       </c>
       <c r="Y7" t="n">
-        <v>514.4224413719846</v>
+        <v>713.4305903848079</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1311.909787855438</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1311.909787855438</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1311.909787855438</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>926.121535257194</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.50962791956</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,16 +4887,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.020896318616</v>
+        <v>795.2798542473295</v>
       </c>
       <c r="C10" t="n">
-        <v>608.0847133907091</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1769.590381440407</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1769.590381440407</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1480.487514566051</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V10" t="n">
-        <v>1225.803026360164</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W10" t="n">
-        <v>1225.803026360164</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X10" t="n">
-        <v>997.8134754621461</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="Y10" t="n">
-        <v>777.020896318616</v>
+        <v>976.9283190775692</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,28 +5036,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5121,25 +5121,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.580456911439</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835317</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711959</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.112710026073</v>
+        <v>2046.67901981013</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026073</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820186</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783226</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.021500885208</v>
+        <v>985.5125840134625</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.228921741678</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,19 +5273,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5306,10 +5306,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890283</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.11872044489</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958744</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679675</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556317</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>335.9629114732386</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5443,43 +5443,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235169</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.50678425811</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602308</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1755.431557602308</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267662</v>
+        <v>1466.014387565348</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369644</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261141</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5492,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>636.6680198981028</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C19" t="n">
-        <v>467.7318369701959</v>
+        <v>888.6771326738542</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578601</v>
+        <v>738.5604932615184</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578601</v>
+        <v>590.6473996791253</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>443.7574521812149</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>276.5613528960949</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2100.27549966854</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1811.200273012738</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>1556.515784806851</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W19" t="n">
-        <v>1267.09861476989</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X19" t="n">
-        <v>1039.109063871873</v>
+        <v>1460.054359575531</v>
       </c>
       <c r="Y19" t="n">
-        <v>818.3164847283425</v>
+        <v>1239.261780432001</v>
       </c>
     </row>
     <row r="20">
@@ -5747,19 +5747,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5768,10 +5768,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5981,13 +5981,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075809</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>417.7969033733018</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>417.7969033733018</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>250.6008040881817</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150035</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580113</v>
@@ -6619,28 +6619,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,16 +6856,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
         <v>198.0944824954151</v>
@@ -7102,31 +7102,31 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,22 +7312,22 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,7 +7658,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
         <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954148</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,7 +7819,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>8.176919404950183</v>
+        <v>8.176919404943988</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>250.6254964739535</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>254.2802337901959</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,22 +22705,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>39.76837043485754</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.514778693482219</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>211.5151132204084</v>
+        <v>68.52575990662487</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>127.2568112467066</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>179.1866975757007</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.64330621514759</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,13 +23941,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>121.5862749664503</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>66.34424953498163</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>99.2678512807216</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>61.40075786968245</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-5.846434575361833e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1304853.32673428</v>
+        <v>1304853.326734281</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99467.00901045145</v>
+        <v>99467.00901045144</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26341,7 +26341,7 @@
         <v>123156.2654796424</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363182</v>
+        <v>19427.71799363172</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3415.825872823349</v>
+        <v>3415.825872823267</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820638</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685503</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="K4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994852</v>
       </c>
       <c r="L4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994852</v>
       </c>
       <c r="M4" t="n">
-        <v>22207.61133994854</v>
+        <v>22207.6113399485</v>
       </c>
       <c r="N4" t="n">
+        <v>22207.6113399485</v>
+      </c>
+      <c r="O4" t="n">
+        <v>22207.61133994852</v>
+      </c>
+      <c r="P4" t="n">
         <v>22207.61133994851</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22207.61133994851</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22207.61133994852</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1340627.503151358</v>
+        <v>-1341022.324092511</v>
       </c>
       <c r="C6" t="n">
-        <v>-78181.46192995715</v>
+        <v>-78181.46192995713</v>
       </c>
       <c r="D6" t="n">
-        <v>-78181.46192995712</v>
+        <v>-78181.46192995713</v>
       </c>
       <c r="E6" t="n">
-        <v>-319679.7537546168</v>
+        <v>-319714.4916800524</v>
       </c>
       <c r="F6" t="n">
-        <v>5732.708052738686</v>
+        <v>5697.970127303081</v>
       </c>
       <c r="G6" t="n">
-        <v>5732.708052738759</v>
+        <v>5697.970127303008</v>
       </c>
       <c r="H6" t="n">
-        <v>5732.708052738773</v>
+        <v>5697.970127303008</v>
       </c>
       <c r="I6" t="n">
-        <v>5732.708052738773</v>
+        <v>5697.970127303008</v>
       </c>
       <c r="J6" t="n">
-        <v>-211798.4943445387</v>
+        <v>-211833.2322699745</v>
       </c>
       <c r="K6" t="n">
-        <v>-21643.17970785336</v>
+        <v>-21643.17970785328</v>
       </c>
       <c r="L6" t="n">
-        <v>-2215.461714221397</v>
+        <v>-2215.461714221543</v>
       </c>
       <c r="M6" t="n">
-        <v>-87270.48964973327</v>
+        <v>-87270.48964973343</v>
       </c>
       <c r="N6" t="n">
-        <v>-2215.461714221397</v>
+        <v>-2215.461714221412</v>
       </c>
       <c r="O6" t="n">
         <v>-2215.461714221427</v>
       </c>
       <c r="P6" t="n">
-        <v>-21643.17970785327</v>
+        <v>-21643.17970785315</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203969</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,16 +26802,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26926,13 +26926,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203965</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>328.3742596033517</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>230.1691999093069</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>60.19242828926303</v>
+        <v>190.2364467515361</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>8.361376531330507</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>322.5051609648197</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>122.5740530198841</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>35.93167756786872</v>
       </c>
     </row>
     <row r="11">
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31841,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328816</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,34 +32075,34 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>641.2555750770849</v>
       </c>
       <c r="O15" t="n">
-        <v>225.4828684302367</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,25 +32309,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558009</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,7 +32339,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>549.9198891312103</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>154.5219885631796</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34872,7 +34872,7 @@
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>108.1274272360195</v>
+        <v>108.1274272360133</v>
       </c>
       <c r="Q4" t="n">
         <v>78.39423853789366</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>191.3582339884371</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="O15" t="n">
-        <v>82.88662398579233</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,10 +35814,10 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060496</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113564</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>407.3236446867659</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980852</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
